--- a/sormovo_val3.xlsx
+++ b/sormovo_val3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Мой диск\Elbrus\11.02.2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F2C3D-6AB9-45BE-830B-3CF3D282412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1615D0-1CD2-4BE7-ABAC-9A43BFE05DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="600" windowWidth="23145" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="600" windowWidth="19470" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -696,16 +696,160 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,12 +876,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -779,144 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -987,6 +987,106 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241837</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>110007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5AFEA0-917E-E574-48B5-6E170CE4553A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1873250" y="7577666"/>
+          <a:ext cx="1310754" cy="1274174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1153583</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498771</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DE235C-8C44-49A6-504F-4C76E43004FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="6932083"/>
+          <a:ext cx="1694688" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1281,7 +1381,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:J17"/>
+      <selection activeCell="A30" sqref="A30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1349,92 +1449,92 @@
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="82" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="80"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="64"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
@@ -1442,17 +1542,17 @@
       <c r="F9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="19" t="s">
         <v>14</v>
       </c>
@@ -1460,286 +1560,286 @@
       <c r="F10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="102"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="60"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="60"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="64">
         <v>45349</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="67">
         <v>0.375</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="60"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="43"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="94"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="94"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="93"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="94"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="48">
         <v>5753040435</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="44" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -1754,30 +1854,30 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:10" ht="92.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -1793,16 +1893,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1824,13 +1924,13 @@
       <c r="B34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
       <c r="F34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
@@ -1853,13 +1953,13 @@
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
       <c r="F36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
@@ -1884,6 +1984,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="B20:E20"/>
@@ -1900,50 +2044,6 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
